--- a/biology/Zoologie/Boulonnaise/Boulonnaise.xlsx
+++ b/biology/Zoologie/Boulonnaise/Boulonnaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La race boulonnaise est une race ovine rustique française à faible effectif originaire du Pas-de-Calais, principalement du Boulonnais. Elle appartient au groupe flamand de la classification des races ovines de France.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La race boulonnaise est issue des populations ovines locales, artésienne et flamande, dans lesquelles furent introduits aux XVIIIe et XIXe siècles des béliers de races anglaises Leicester, New Kent (en) et Shropshire afin d’améliorer la production de laine.
 L’État accompagna ce mouvement par un travail de sélection réalisé dans la bergerie royale de Montcavrel (près de Montreuil), transférée en 1859 au Haut-Tingry, dans la commune de Tingry (près de Boulogne). C’est là que la race ovine boulonnaise fut définitivement fixée vers 1880.
